--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,24 +49,21 @@
     <t>poor</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>waste</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
@@ -79,13 +76,16 @@
     <t>plastic</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>thought</t>
@@ -94,51 +94,54 @@
     <t>size</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>would</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -160,18 +163,21 @@
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
@@ -181,10 +187,10 @@
     <t>fun</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>easy</t>
   </si>
   <si>
     <t>play</t>
@@ -548,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,10 +562,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,13 +623,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -635,19 +641,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -688,16 +694,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -709,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -717,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7464788732394366</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -735,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>0.8279569892473119</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="L5">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M5">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +773,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.703125</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>0.765625</v>
+        <v>0.78125</v>
       </c>
       <c r="L6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6720430107526881</v>
+        <v>0.671875</v>
       </c>
       <c r="C7">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,19 +841,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>0.6415094339622641</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +873,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6310679611650486</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C8">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="D8">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>0.569583931133429</v>
+        <v>0.5581061692969871</v>
       </c>
       <c r="L8">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="M8">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +923,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6181818181818182</v>
+        <v>0.6283783783783784</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>0.5507246376811594</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +973,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6041666666666666</v>
+        <v>0.616504854368932</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>0.4854771784232365</v>
+        <v>0.487551867219917</v>
       </c>
       <c r="L10">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M10">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,13 +1023,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5878378378378378</v>
+        <v>0.5630252100840336</v>
       </c>
       <c r="C11">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1035,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>0.4540983606557377</v>
+        <v>0.45</v>
       </c>
       <c r="L11">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="M11">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1059,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,13 +1073,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5546218487394958</v>
+        <v>0.5101449275362319</v>
       </c>
       <c r="C12">
-        <v>66</v>
+        <v>176</v>
       </c>
       <c r="D12">
-        <v>66</v>
+        <v>176</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1085,19 +1091,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>0.363914373088685</v>
+        <v>0.3493975903614458</v>
       </c>
       <c r="L12">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="M12">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1109,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>208</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1117,13 +1123,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5101449275362319</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="C13">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="D13">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1135,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13">
-        <v>0.3554216867469879</v>
+        <v>0.3486238532110092</v>
       </c>
       <c r="L13">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="M13">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1159,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>107</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1167,13 +1173,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4210526315789473</v>
+        <v>0.4173228346456693</v>
       </c>
       <c r="C14">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1185,19 +1191,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K14">
-        <v>0.3166666666666667</v>
+        <v>0.325</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1209,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1217,37 +1223,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4015748031496063</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="C15">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>51</v>
       </c>
-      <c r="D15">
-        <v>51</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>76</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>0.291005291005291</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L15">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M15">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1259,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1267,13 +1273,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3981042654028436</v>
+        <v>0.3828125</v>
       </c>
       <c r="C16">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="D16">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1285,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K16">
-        <v>0.1726907630522088</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L16">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M16">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1309,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>206</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1317,13 +1323,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3734939759036144</v>
+        <v>0.3744075829383886</v>
       </c>
       <c r="C17">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1335,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K17">
-        <v>0.1559139784946237</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1359,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>157</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1367,13 +1373,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.359375</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C18">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1385,31 +1391,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K18">
-        <v>0.1482456140350877</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L18">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="N18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>971</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1417,13 +1423,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2722772277227723</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="C19">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D19">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1435,19 +1441,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K19">
-        <v>0.07852044127190136</v>
+        <v>0.1446099912357581</v>
       </c>
       <c r="L19">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="M19">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1459,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1420</v>
+        <v>976</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1467,13 +1473,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2319587628865979</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C20">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D20">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1485,19 +1491,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K20">
-        <v>0.07754010695187166</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1509,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1517,13 +1523,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.177536231884058</v>
+        <v>0.215</v>
       </c>
       <c r="C21">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D21">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1535,31 +1541,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>227</v>
+        <v>157</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K21">
-        <v>0.04394141145139813</v>
+        <v>0.07342430149447693</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="N21">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O21">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>718</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1567,25 +1573,49 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.17</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="C22">
+        <v>51</v>
+      </c>
+      <c r="D22">
+        <v>51</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>225</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22">
+        <v>0.04539385847797063</v>
+      </c>
+      <c r="L22">
         <v>34</v>
       </c>
-      <c r="D22">
-        <v>34</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>166</v>
+      <c r="M22">
+        <v>37</v>
+      </c>
+      <c r="N22">
+        <v>0.92</v>
+      </c>
+      <c r="O22">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>715</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1593,13 +1623,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1679049034175334</v>
+        <v>0.1693907875185736</v>
       </c>
       <c r="C23">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D23">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E23">
         <v>0.01</v>
@@ -1611,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1619,13 +1649,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1645569620253164</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C24">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1637,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1645,25 +1675,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1635514018691589</v>
+        <v>0.1556195965417868</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D25">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>179</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1671,13 +1701,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1455696202531646</v>
+        <v>0.1542056074766355</v>
       </c>
       <c r="C26">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D26">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1689,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>270</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1697,25 +1727,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.138328530259366</v>
+        <v>0.1424050632911392</v>
       </c>
       <c r="C27">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D27">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E27">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>299</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1723,13 +1753,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.13215859030837</v>
+        <v>0.1299559471365639</v>
       </c>
       <c r="C28">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1741,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1749,13 +1779,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.09041095890410959</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1767,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1775,25 +1805,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.07107438016528926</v>
+        <v>0.07589285714285714</v>
       </c>
       <c r="C30">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D30">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E30">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="F30">
-        <v>0.9299999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>562</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1801,25 +1831,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04754601226993865</v>
+        <v>0.066006600660066</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D31">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E31">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="F31">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>621</v>
+        <v>566</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1827,25 +1857,51 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.04430379746835443</v>
+        <v>0.04949238578680203</v>
       </c>
       <c r="C32">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D32">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E32">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="F32">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>755</v>
+        <v>749</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.04447852760736196</v>
+      </c>
+      <c r="C33">
+        <v>29</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <v>0.09</v>
+      </c>
+      <c r="F33">
+        <v>0.91</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>623</v>
       </c>
     </row>
   </sheetData>
